--- a/metro/station_line_list/station_list.xlsx
+++ b/metro/station_line_list/station_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zhouweifile\Github-Project\VeDa-SG-Public-Transit-System\metro\station_line_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7A9BA8-5021-4CE6-AE1A-01D38D27314A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D81AB93-D7CE-41EA-BDDE-F04839F757F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5655" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1385,7 +1385,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -1902,13 +1902,13 @@
     <xf numFmtId="164" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4423,7 +4423,7 @@
   <dimension ref="A1:L221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:K1048576"/>
+      <selection activeCell="I224" sqref="I224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8134,10 +8134,10 @@
       </c>
       <c r="I133" s="6"/>
       <c r="J133" s="13">
-        <v>1.2747550038337301</v>
+        <v>1.2766200000000001</v>
       </c>
       <c r="K133" s="13">
-        <v>103.84157999689801</v>
+        <v>103.84578</v>
       </c>
     </row>
     <row r="134" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -9483,10 +9483,10 @@
         <v>443</v>
       </c>
       <c r="J180" s="12">
-        <v>1.43933668223697</v>
+        <v>1.4368639999999999</v>
       </c>
       <c r="K180" s="12">
-        <v>103.781463346968</v>
+        <v>103.786198</v>
       </c>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
@@ -10058,10 +10058,10 @@
       </c>
       <c r="I201" s="6"/>
       <c r="J201" s="13">
-        <v>1.43933668223697</v>
+        <v>1.4368639999999999</v>
       </c>
       <c r="K201" s="13">
-        <v>103.781463346968</v>
+        <v>103.786198</v>
       </c>
     </row>
     <row r="202" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
@@ -10173,8 +10173,12 @@
         <v>44436</v>
       </c>
       <c r="I205" s="6"/>
-      <c r="J205" s="13"/>
-      <c r="K205" s="13"/>
+      <c r="J205" s="13">
+        <v>1.37245999999999</v>
+      </c>
+      <c r="K205" s="13">
+        <v>103.83696</v>
+      </c>
     </row>
     <row r="206" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A206" s="6" t="s">

--- a/metro/station_line_list/station_list.xlsx
+++ b/metro/station_line_list/station_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zhouweifile\Github-Project\VeDa-SG-Public-Transit-System\metro\station_line_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D81AB93-D7CE-41EA-BDDE-F04839F757F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8E1998-7643-4D07-9444-15FAF13803E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5655" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4423,7 +4423,7 @@
   <dimension ref="A1:L221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I224" sqref="I224"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/metro/station_line_list/station_list.xlsx
+++ b/metro/station_line_list/station_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zhouweifile\Github-Project\VeDa-SG-Public-Transit-System\metro\station_line_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8E1998-7643-4D07-9444-15FAF13803E8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C09A41A-9E34-41F5-8577-4770E0A8A735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="5655" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2925" yWindow="1995" windowWidth="18000" windowHeight="10185" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2022-01-25" sheetId="2" r:id="rId1"/>
@@ -1151,9 +1151,6 @@
     <t>EW14/NS26</t>
   </si>
   <si>
-    <t>EW16/NE3/T17</t>
-  </si>
-  <si>
     <t>CC22/EW21</t>
   </si>
   <si>
@@ -1377,6 +1374,9 @@
   </si>
   <si>
     <t>Lantitude</t>
+  </si>
+  <si>
+    <t>EW16/NE3/TE17</t>
   </si>
 </sst>
 </file>
@@ -2281,13 +2281,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>445</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -4422,8 +4422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L221"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="D84" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4431,7 +4431,7 @@
     <col min="1" max="1" width="36.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="10.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="18.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="16.85546875" style="2" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="9" bestFit="1" customWidth="1"/>
@@ -4444,40 +4444,40 @@
   <sheetData>
     <row r="1" spans="1:12" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>372</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H1" s="8" t="s">
+        <v>448</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="J1" s="11" t="s">
         <v>449</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>450</v>
       </c>
       <c r="K1" s="11" t="s">
         <v>369</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -4485,22 +4485,22 @@
         <v>285</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J2" s="12">
         <v>1.3852033333371101</v>
@@ -4514,7 +4514,7 @@
         <v>285</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C3" s="2">
         <v>2</v>
@@ -4526,7 +4526,7 @@
         <v>288</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J3" s="12">
         <v>1.3802700000000001</v>
@@ -4540,7 +4540,7 @@
         <v>285</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
@@ -4552,7 +4552,7 @@
         <v>290</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J4" s="12">
         <v>1.3785999999999901</v>
@@ -4566,7 +4566,7 @@
         <v>285</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C5" s="2">
         <v>4</v>
@@ -4578,7 +4578,7 @@
         <v>292</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J5" s="12">
         <v>1.37665999999999</v>
@@ -4592,7 +4592,7 @@
         <v>285</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C6" s="2">
         <v>5</v>
@@ -4604,7 +4604,7 @@
         <v>294</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J6" s="12">
         <v>1.3786099999999999</v>
@@ -4618,22 +4618,22 @@
         <v>285</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C7" s="2">
         <v>6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>211</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J7" s="12">
         <v>1.3782300000590499</v>
@@ -4644,26 +4644,26 @@
     </row>
     <row r="8" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C8" s="6">
         <v>1</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>211</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="13">
@@ -4675,10 +4675,10 @@
     </row>
     <row r="9" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C9" s="6">
         <v>2</v>
@@ -4692,7 +4692,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="13">
@@ -4704,10 +4704,10 @@
     </row>
     <row r="10" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C10" s="6">
         <v>3</v>
@@ -4721,7 +4721,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="13">
@@ -4733,10 +4733,10 @@
     </row>
     <row r="11" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C11" s="6">
         <v>4</v>
@@ -4750,7 +4750,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="13">
@@ -4762,10 +4762,10 @@
     </row>
     <row r="12" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C12" s="6">
         <v>5</v>
@@ -4779,7 +4779,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="13">
@@ -4791,10 +4791,10 @@
     </row>
     <row r="13" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C13" s="6">
         <v>6</v>
@@ -4808,7 +4808,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="13">
@@ -4820,10 +4820,10 @@
     </row>
     <row r="14" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C14" s="6">
         <v>7</v>
@@ -4837,7 +4837,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="13">
@@ -4849,10 +4849,10 @@
     </row>
     <row r="15" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C15" s="6">
         <v>8</v>
@@ -4866,7 +4866,7 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="13">
@@ -4878,26 +4878,26 @@
     </row>
     <row r="16" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C16" s="6">
         <v>9</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>211</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I16" s="6"/>
       <c r="J16" s="13">
@@ -4909,25 +4909,25 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>154</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J17" s="12">
         <v>1.40524500000009</v>
@@ -4938,10 +4938,10 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C18" s="2">
         <v>2</v>
@@ -4953,7 +4953,7 @@
         <v>355</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J18" s="12">
         <v>1.4097299999999999</v>
@@ -4964,10 +4964,10 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C19" s="2">
         <v>3</v>
@@ -4979,15 +4979,15 @@
         <v>357</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C20" s="2">
         <v>4</v>
@@ -4999,7 +4999,7 @@
         <v>359</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J20" s="12">
         <v>1.4168799999999999</v>
@@ -5010,10 +5010,10 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C21" s="2">
         <v>5</v>
@@ -5025,7 +5025,7 @@
         <v>361</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J21" s="12">
         <v>1.41595</v>
@@ -5036,10 +5036,10 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C22" s="2">
         <v>6</v>
@@ -5051,7 +5051,7 @@
         <v>363</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J22" s="12">
         <v>1.4118900000000001</v>
@@ -5062,10 +5062,10 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C23" s="2">
         <v>7</v>
@@ -5077,7 +5077,7 @@
         <v>365</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J23" s="12">
         <v>1.40847999999999</v>
@@ -5088,10 +5088,10 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C24" s="2">
         <v>8</v>
@@ -5103,7 +5103,7 @@
         <v>367</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J24" s="12">
         <v>1.40541</v>
@@ -5114,25 +5114,25 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C25" s="2">
         <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>154</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J25" s="12">
         <v>1.40524500000009</v>
@@ -5143,26 +5143,26 @@
     </row>
     <row r="26" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C26" s="6">
         <v>1</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>154</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I26" s="6"/>
       <c r="J26" s="13">
@@ -5174,10 +5174,10 @@
     </row>
     <row r="27" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C27" s="6">
         <v>2</v>
@@ -5191,7 +5191,7 @@
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I27" s="6"/>
       <c r="J27" s="13">
@@ -5203,10 +5203,10 @@
     </row>
     <row r="28" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C28" s="6">
         <v>3</v>
@@ -5220,7 +5220,7 @@
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I28" s="6"/>
       <c r="J28" s="13">
@@ -5232,10 +5232,10 @@
     </row>
     <row r="29" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C29" s="6">
         <v>4</v>
@@ -5249,7 +5249,7 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I29" s="6"/>
       <c r="J29" s="13">
@@ -5261,10 +5261,10 @@
     </row>
     <row r="30" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C30" s="6">
         <v>5</v>
@@ -5278,7 +5278,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I30" s="6"/>
       <c r="J30" s="13">
@@ -5290,10 +5290,10 @@
     </row>
     <row r="31" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C31" s="6">
         <v>6</v>
@@ -5307,7 +5307,7 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="13">
@@ -5319,10 +5319,10 @@
     </row>
     <row r="32" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C32" s="6">
         <v>7</v>
@@ -5336,7 +5336,7 @@
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I32" s="6"/>
       <c r="J32" s="13">
@@ -5348,10 +5348,10 @@
     </row>
     <row r="33" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C33" s="6">
         <v>8</v>
@@ -5365,7 +5365,7 @@
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I33" s="6"/>
       <c r="J33" s="13">
@@ -5377,26 +5377,26 @@
     </row>
     <row r="34" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C34" s="6">
         <v>9</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>154</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I34" s="6"/>
       <c r="J34" s="13">
@@ -5408,25 +5408,25 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C35" s="2">
         <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>152</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J35" s="12">
         <v>1.3916450000000899</v>
@@ -5437,10 +5437,10 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C36" s="2">
         <v>2</v>
@@ -5452,7 +5452,7 @@
         <v>329</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J36" s="12">
         <v>1.3944700000000001</v>
@@ -5463,10 +5463,10 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C37" s="2">
         <v>3</v>
@@ -5478,7 +5478,7 @@
         <v>331</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J37" s="12">
         <v>1.39147</v>
@@ -5489,10 +5489,10 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C38" s="2">
         <v>4</v>
@@ -5504,7 +5504,7 @@
         <v>333</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J38" s="12">
         <v>1.38808</v>
@@ -5515,10 +5515,10 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C39" s="2">
         <v>5</v>
@@ -5530,7 +5530,7 @@
         <v>335</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J39" s="12">
         <v>1.3839300000000001</v>
@@ -5541,10 +5541,10 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C40" s="2">
         <v>6</v>
@@ -5556,7 +5556,7 @@
         <v>337</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J40" s="12">
         <v>1.3839600000000001</v>
@@ -5567,25 +5567,25 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C41" s="2">
         <v>7</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>152</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J41" s="12">
         <v>1.3916450000000899</v>
@@ -5596,26 +5596,26 @@
     </row>
     <row r="42" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C42" s="6">
         <v>1</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>152</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I42" s="6"/>
       <c r="J42" s="13">
@@ -5627,10 +5627,10 @@
     </row>
     <row r="43" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C43" s="6">
         <v>2</v>
@@ -5644,7 +5644,7 @@
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I43" s="6"/>
       <c r="J43" s="13">
@@ -5656,10 +5656,10 @@
     </row>
     <row r="44" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C44" s="6">
         <v>3</v>
@@ -5673,7 +5673,7 @@
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I44" s="6"/>
       <c r="J44" s="13">
@@ -5685,10 +5685,10 @@
     </row>
     <row r="45" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C45" s="6">
         <v>4</v>
@@ -5702,7 +5702,7 @@
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I45" s="6"/>
       <c r="J45" s="13">
@@ -5714,10 +5714,10 @@
     </row>
     <row r="46" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C46" s="6">
         <v>5</v>
@@ -5731,7 +5731,7 @@
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I46" s="6"/>
       <c r="J46" s="13">
@@ -5743,10 +5743,10 @@
     </row>
     <row r="47" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C47" s="6">
         <v>6</v>
@@ -5760,7 +5760,7 @@
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I47" s="6"/>
       <c r="J47" s="13">
@@ -5772,10 +5772,10 @@
     </row>
     <row r="48" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C48" s="6">
         <v>7</v>
@@ -5789,7 +5789,7 @@
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I48" s="6"/>
       <c r="J48" s="13">
@@ -5801,10 +5801,10 @@
     </row>
     <row r="49" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C49" s="6">
         <v>8</v>
@@ -5818,7 +5818,7 @@
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I49" s="6"/>
       <c r="J49" s="13">
@@ -5830,10 +5830,10 @@
     </row>
     <row r="50" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C50" s="6">
         <v>9</v>
@@ -5847,7 +5847,7 @@
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I50" s="6"/>
       <c r="J50" s="13">
@@ -5859,26 +5859,26 @@
     </row>
     <row r="51" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C51" s="6">
         <v>10</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>152</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G51" s="6"/>
       <c r="H51" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I51" s="6"/>
       <c r="J51" s="13">
@@ -5893,22 +5893,22 @@
         <v>155</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C52" s="2">
         <v>1</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>116</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J52" s="12">
         <v>1.29922666669347</v>
@@ -5922,7 +5922,7 @@
         <v>155</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C53" s="2">
         <v>2</v>
@@ -5934,7 +5934,7 @@
         <v>161</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J53" s="12">
         <v>1.29686999999999</v>
@@ -5948,7 +5948,7 @@
         <v>155</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C54" s="2">
         <v>3</v>
@@ -5960,7 +5960,7 @@
         <v>163</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J54" s="12">
         <v>1.29338</v>
@@ -5974,22 +5974,22 @@
         <v>155</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C55" s="2">
         <v>4</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>165</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J55" s="12">
         <v>1.2926450000003999</v>
@@ -6003,7 +6003,7 @@
         <v>155</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C56" s="2">
         <v>5</v>
@@ -6015,7 +6015,7 @@
         <v>167</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J56" s="12">
         <v>1.2996799999999999</v>
@@ -6029,7 +6029,7 @@
         <v>155</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C57" s="2">
         <v>6</v>
@@ -6041,7 +6041,7 @@
         <v>169</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J57" s="12">
         <v>1.30287</v>
@@ -6055,7 +6055,7 @@
         <v>155</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C58" s="2">
         <v>7</v>
@@ -6067,7 +6067,7 @@
         <v>171</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J58" s="12">
         <v>1.30622999999999</v>
@@ -6081,7 +6081,7 @@
         <v>155</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C59" s="2">
         <v>8</v>
@@ -6093,7 +6093,7 @@
         <v>173</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J59" s="12">
         <v>1.3084</v>
@@ -6107,7 +6107,7 @@
         <v>155</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C60" s="2">
         <v>9</v>
@@ -6119,10 +6119,10 @@
         <v>20</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J60" s="12">
         <v>1.31778500003273</v>
@@ -6136,22 +6136,22 @@
         <v>155</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C61" s="2">
         <v>10</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>176</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J61" s="12">
         <v>1.3263600000344</v>
@@ -6165,7 +6165,7 @@
         <v>155</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C62" s="2">
         <v>11</v>
@@ -6177,7 +6177,7 @@
         <v>178</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J62" s="12">
         <v>1.33544</v>
@@ -6191,7 +6191,7 @@
         <v>155</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C63" s="2">
         <v>12</v>
@@ -6203,7 +6203,7 @@
         <v>180</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J63" s="12">
         <v>1.3428599999999999</v>
@@ -6217,22 +6217,22 @@
         <v>155</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C64" s="2">
         <v>13</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>144</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H64" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J64" s="12">
         <v>1.3501500000855</v>
@@ -6246,7 +6246,7 @@
         <v>155</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C65" s="2">
         <v>14</v>
@@ -6258,7 +6258,7 @@
         <v>183</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J65" s="12">
         <v>1.35161</v>
@@ -6272,22 +6272,22 @@
         <v>155</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C66" s="2">
         <v>15</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>102</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J66" s="12">
         <v>1.3513600000044199</v>
@@ -6301,7 +6301,7 @@
         <v>155</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C67" s="2">
         <v>16</v>
@@ -6313,7 +6313,7 @@
         <v>186</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J67" s="12">
         <v>1.34904</v>
@@ -6327,22 +6327,22 @@
         <v>155</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C68" s="2">
         <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>188</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J68" s="12">
         <v>1.3374300000118</v>
@@ -6356,19 +6356,19 @@
         <v>155</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C69" s="2">
         <v>18</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E69" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="H69" s="9" t="s">
         <v>437</v>
-      </c>
-      <c r="H69" s="9" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
@@ -6376,22 +6376,22 @@
         <v>155</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C70" s="2">
         <v>19</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>190</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J70" s="12">
         <v>1.3222650000482199</v>
@@ -6405,7 +6405,7 @@
         <v>155</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C71" s="2">
         <v>20</v>
@@ -6417,7 +6417,7 @@
         <v>192</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J71" s="12">
         <v>1.31741</v>
@@ -6431,7 +6431,7 @@
         <v>155</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C72" s="2">
         <v>21</v>
@@ -6443,7 +6443,7 @@
         <v>194</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J72" s="12">
         <v>1.3124</v>
@@ -6457,22 +6457,22 @@
         <v>155</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C73" s="2">
         <v>22</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H73" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J73" s="12">
         <v>1.3068650000088999</v>
@@ -6486,7 +6486,7 @@
         <v>155</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C74" s="2">
         <v>23</v>
@@ -6498,7 +6498,7 @@
         <v>197</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J74" s="12">
         <v>1.2993699999999899</v>
@@ -6512,7 +6512,7 @@
         <v>155</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C75" s="2">
         <v>24</v>
@@ -6524,7 +6524,7 @@
         <v>199</v>
       </c>
       <c r="H75" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J75" s="12">
         <v>1.29372</v>
@@ -6538,7 +6538,7 @@
         <v>155</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C76" s="2">
         <v>25</v>
@@ -6550,7 +6550,7 @@
         <v>201</v>
       </c>
       <c r="H76" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J76" s="12">
         <v>1.28268</v>
@@ -6564,7 +6564,7 @@
         <v>155</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C77" s="2">
         <v>26</v>
@@ -6576,7 +6576,7 @@
         <v>203</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J77" s="12">
         <v>1.2761899999999999</v>
@@ -6590,7 +6590,7 @@
         <v>155</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C78" s="2">
         <v>27</v>
@@ -6602,7 +6602,7 @@
         <v>205</v>
       </c>
       <c r="H78" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J78" s="12">
         <v>1.2723199999999899</v>
@@ -6616,7 +6616,7 @@
         <v>155</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C79" s="2">
         <v>28</v>
@@ -6628,7 +6628,7 @@
         <v>207</v>
       </c>
       <c r="H79" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J79" s="12">
         <v>1.2706299999999899</v>
@@ -6642,22 +6642,22 @@
         <v>155</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C80" s="2">
         <v>29</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>126</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J80" s="12">
         <v>1.2653450000191999</v>
@@ -6668,26 +6668,26 @@
     </row>
     <row r="81" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C81" s="6">
         <v>1</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E81" s="6" t="s">
         <v>165</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G81" s="6"/>
       <c r="H81" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I81" s="6"/>
       <c r="J81" s="13">
@@ -6699,26 +6699,26 @@
     </row>
     <row r="82" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C82" s="6">
         <v>2</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E82" s="6" t="s">
         <v>158</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G82" s="6"/>
       <c r="H82" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I82" s="6"/>
       <c r="J82" s="13">
@@ -6730,26 +6730,26 @@
     </row>
     <row r="83" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C83" s="6">
         <v>3</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E83" s="6" t="s">
         <v>121</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G83" s="6"/>
       <c r="H83" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I83" s="6"/>
       <c r="J83" s="13">
@@ -6764,19 +6764,19 @@
         <v>209</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C84" s="2">
         <v>1</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>210</v>
+        <v>427</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>211</v>
       </c>
       <c r="H84" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J84" s="12">
         <v>1.3782300000590499</v>
@@ -6790,7 +6790,7 @@
         <v>209</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C85" s="2">
         <v>2</v>
@@ -6802,7 +6802,7 @@
         <v>213</v>
       </c>
       <c r="H85" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J85" s="12">
         <v>1.36955</v>
@@ -6816,7 +6816,7 @@
         <v>209</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C86" s="2">
         <v>3</v>
@@ -6828,7 +6828,7 @@
         <v>215</v>
       </c>
       <c r="H86" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J86" s="12">
         <v>1.3626499999999999</v>
@@ -6842,19 +6842,19 @@
         <v>209</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C87" s="2">
         <v>4</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H87" s="9" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
@@ -6862,7 +6862,7 @@
         <v>209</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C88" s="2">
         <v>5</v>
@@ -6874,7 +6874,7 @@
         <v>217</v>
       </c>
       <c r="H88" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J88" s="12">
         <v>1.3413200000000001</v>
@@ -6888,7 +6888,7 @@
         <v>209</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C89" s="2">
         <v>6</v>
@@ -6900,7 +6900,7 @@
         <v>219</v>
       </c>
       <c r="H89" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J89" s="12">
         <v>1.33602</v>
@@ -6914,7 +6914,7 @@
         <v>209</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C90" s="2">
         <v>7</v>
@@ -6926,7 +6926,7 @@
         <v>221</v>
       </c>
       <c r="H90" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J90" s="12">
         <v>1.3306899999999999</v>
@@ -6940,7 +6940,7 @@
         <v>209</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C91" s="2">
         <v>8</v>
@@ -6952,7 +6952,7 @@
         <v>223</v>
       </c>
       <c r="H91" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J91" s="12">
         <v>1.32603</v>
@@ -6966,22 +6966,22 @@
         <v>209</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C92" s="2">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>190</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H92" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J92" s="12">
         <v>1.3222650000482199</v>
@@ -6995,22 +6995,22 @@
         <v>209</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C93" s="2">
         <v>10</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>226</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H93" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J93" s="12">
         <v>1.31977000001037</v>
@@ -7024,22 +7024,22 @@
         <v>209</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C94" s="2">
         <v>11</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>110</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H94" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J94" s="12">
         <v>1.3131700000033899</v>
@@ -7053,22 +7053,22 @@
         <v>209</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C95" s="2">
         <v>12</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>134</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H95" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J95" s="12">
         <v>1.3070350000183699</v>
@@ -7082,7 +7082,7 @@
         <v>209</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C96" s="2">
         <v>13</v>
@@ -7094,7 +7094,7 @@
         <v>230</v>
       </c>
       <c r="H96" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J96" s="12">
         <v>1.30399</v>
@@ -7108,7 +7108,7 @@
         <v>209</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C97" s="2">
         <v>14</v>
@@ -7120,10 +7120,10 @@
         <v>28</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H97" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J97" s="12">
         <v>1.30010500005003</v>
@@ -7137,22 +7137,22 @@
         <v>209</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C98" s="2">
         <v>15</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>165</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H98" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J98" s="12">
         <v>1.2926450000003999</v>
@@ -7166,22 +7166,22 @@
         <v>209</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C99" s="2">
         <v>16</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>158</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H99" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J99" s="12">
         <v>1.28181000000012</v>
@@ -7195,7 +7195,7 @@
         <v>209</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C100" s="2">
         <v>17</v>
@@ -7207,7 +7207,7 @@
         <v>235</v>
       </c>
       <c r="H100" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J100" s="12">
         <v>1.27945</v>
@@ -7221,7 +7221,7 @@
         <v>209</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C101" s="2">
         <v>18</v>
@@ -7233,7 +7233,7 @@
         <v>237</v>
       </c>
       <c r="H101" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J101" s="12">
         <v>1.2822499999999999</v>
@@ -7247,22 +7247,22 @@
         <v>209</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C102" s="2">
         <v>19</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>129</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H102" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J102" s="12">
         <v>1.2845600000131301</v>
@@ -7276,7 +7276,7 @@
         <v>209</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C103" s="2">
         <v>20</v>
@@ -7288,7 +7288,7 @@
         <v>240</v>
       </c>
       <c r="H103" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J103" s="12">
         <v>1.2923500000000001</v>
@@ -7302,7 +7302,7 @@
         <v>209</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C104" s="2">
         <v>21</v>
@@ -7314,7 +7314,7 @@
         <v>242</v>
       </c>
       <c r="H104" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J104" s="12">
         <v>1.2982800000000001</v>
@@ -7328,7 +7328,7 @@
         <v>209</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C105" s="2">
         <v>22</v>
@@ -7340,7 +7340,7 @@
         <v>244</v>
       </c>
       <c r="H105" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J105" s="12">
         <v>1.30552</v>
@@ -7354,7 +7354,7 @@
         <v>209</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C106" s="2">
         <v>23</v>
@@ -7366,7 +7366,7 @@
         <v>246</v>
       </c>
       <c r="H106" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J106" s="12">
         <v>1.3132600000000001</v>
@@ -7380,7 +7380,7 @@
         <v>209</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C107" s="2">
         <v>24</v>
@@ -7392,7 +7392,7 @@
         <v>248</v>
       </c>
       <c r="H107" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J107" s="12">
         <v>1.3215299999999901</v>
@@ -7406,7 +7406,7 @@
         <v>209</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C108" s="2">
         <v>25</v>
@@ -7418,7 +7418,7 @@
         <v>250</v>
       </c>
       <c r="H108" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J108" s="12">
         <v>1.32694</v>
@@ -7432,22 +7432,22 @@
         <v>209</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C109" s="2">
         <v>26</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>176</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H109" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J109" s="12">
         <v>1.3263600000344</v>
@@ -7461,7 +7461,7 @@
         <v>209</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C110" s="2">
         <v>27</v>
@@ -7473,7 +7473,7 @@
         <v>253</v>
       </c>
       <c r="H110" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J110" s="12">
         <v>1.32988</v>
@@ -7487,7 +7487,7 @@
         <v>209</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C111" s="2">
         <v>28</v>
@@ -7499,7 +7499,7 @@
         <v>255</v>
       </c>
       <c r="H111" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J111" s="12">
         <v>1.3348799999999901</v>
@@ -7513,7 +7513,7 @@
         <v>209</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C112" s="2">
         <v>29</v>
@@ -7525,7 +7525,7 @@
         <v>257</v>
       </c>
       <c r="H112" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J112" s="12">
         <v>1.3345899999999999</v>
@@ -7539,7 +7539,7 @@
         <v>209</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C113" s="2">
         <v>30</v>
@@ -7551,7 +7551,7 @@
         <v>259</v>
       </c>
       <c r="H113" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J113" s="12">
         <v>1.3364499999999999</v>
@@ -7565,7 +7565,7 @@
         <v>209</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C114" s="2">
         <v>31</v>
@@ -7577,7 +7577,7 @@
         <v>261</v>
       </c>
       <c r="H114" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J114" s="12">
         <v>1.3455199999999901</v>
@@ -7591,22 +7591,22 @@
         <v>209</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C115" s="2">
         <v>32</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H115" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J115" s="12">
         <v>1.35418500022413</v>
@@ -7620,7 +7620,7 @@
         <v>209</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C116" s="2">
         <v>33</v>
@@ -7632,7 +7632,7 @@
         <v>264</v>
       </c>
       <c r="H116" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J116" s="12">
         <v>1.3561300000000001</v>
@@ -7646,7 +7646,7 @@
         <v>209</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C117" s="2">
         <v>34</v>
@@ -7658,7 +7658,7 @@
         <v>266</v>
       </c>
       <c r="H117" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J117" s="12">
         <v>1.3416999999999899</v>
@@ -7672,7 +7672,7 @@
         <v>209</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C118" s="2">
         <v>35</v>
@@ -7684,7 +7684,7 @@
         <v>4</v>
       </c>
       <c r="H118" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J118" s="12">
         <v>1.3350250000275701</v>
@@ -7698,7 +7698,7 @@
         <v>0</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C119" s="6">
         <v>1</v>
@@ -7712,7 +7712,7 @@
       <c r="F119" s="6"/>
       <c r="G119" s="6"/>
       <c r="H119" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I119" s="6"/>
       <c r="J119" s="13">
@@ -7727,23 +7727,23 @@
         <v>0</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C120" s="6">
         <v>2</v>
       </c>
       <c r="D120" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E120" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G120" s="6"/>
       <c r="H120" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I120" s="6"/>
       <c r="J120" s="13">
@@ -7758,7 +7758,7 @@
         <v>0</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C121" s="6">
         <v>3</v>
@@ -7772,7 +7772,7 @@
       <c r="F121" s="6"/>
       <c r="G121" s="6"/>
       <c r="H121" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I121" s="6"/>
       <c r="J121" s="13">
@@ -7787,7 +7787,7 @@
         <v>0</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C122" s="6">
         <v>4</v>
@@ -7799,11 +7799,11 @@
         <v>12</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G122" s="6"/>
       <c r="H122" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I122" s="6"/>
       <c r="J122" s="13">
@@ -7818,7 +7818,7 @@
         <v>0</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C123" s="6">
         <v>5</v>
@@ -7832,7 +7832,7 @@
       <c r="F123" s="6"/>
       <c r="G123" s="6"/>
       <c r="H123" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I123" s="6"/>
       <c r="J123" s="13">
@@ -7847,7 +7847,7 @@
         <v>0</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C124" s="6">
         <v>6</v>
@@ -7861,7 +7861,7 @@
       <c r="F124" s="6"/>
       <c r="G124" s="6"/>
       <c r="H124" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I124" s="6"/>
       <c r="J124" s="13">
@@ -7876,7 +7876,7 @@
         <v>0</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C125" s="6">
         <v>7</v>
@@ -7890,7 +7890,7 @@
       <c r="F125" s="6"/>
       <c r="G125" s="6"/>
       <c r="H125" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I125" s="6"/>
       <c r="J125" s="13">
@@ -7905,7 +7905,7 @@
         <v>0</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C126" s="6">
         <v>8</v>
@@ -7917,11 +7917,11 @@
         <v>20</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G126" s="6"/>
       <c r="H126" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I126" s="6"/>
       <c r="J126" s="13">
@@ -7936,7 +7936,7 @@
         <v>0</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C127" s="6">
         <v>9</v>
@@ -7950,7 +7950,7 @@
       <c r="F127" s="6"/>
       <c r="G127" s="6"/>
       <c r="H127" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I127" s="6"/>
       <c r="J127" s="13">
@@ -7965,7 +7965,7 @@
         <v>0</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C128" s="6">
         <v>10</v>
@@ -7979,7 +7979,7 @@
       <c r="F128" s="6"/>
       <c r="G128" s="6"/>
       <c r="H128" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I128" s="6"/>
       <c r="J128" s="13">
@@ -7994,7 +7994,7 @@
         <v>0</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C129" s="6">
         <v>11</v>
@@ -8008,7 +8008,7 @@
       <c r="F129" s="6"/>
       <c r="G129" s="6"/>
       <c r="H129" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I129" s="6"/>
       <c r="J129" s="13">
@@ -8023,7 +8023,7 @@
         <v>0</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C130" s="6">
         <v>12</v>
@@ -8035,11 +8035,11 @@
         <v>28</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G130" s="6"/>
       <c r="H130" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I130" s="6"/>
       <c r="J130" s="13">
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C131" s="6">
         <v>13</v>
@@ -8066,11 +8066,11 @@
         <v>30</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G131" s="6"/>
       <c r="H131" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I131" s="6"/>
       <c r="J131" s="13">
@@ -8085,7 +8085,7 @@
         <v>0</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C132" s="6">
         <v>14</v>
@@ -8097,11 +8097,11 @@
         <v>119</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G132" s="6"/>
       <c r="H132" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I132" s="6"/>
       <c r="J132" s="13">
@@ -8116,7 +8116,7 @@
         <v>0</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C133" s="6">
         <v>15</v>
@@ -8130,7 +8130,7 @@
       <c r="F133" s="6"/>
       <c r="G133" s="6"/>
       <c r="H133" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I133" s="6"/>
       <c r="J133" s="13">
@@ -8145,23 +8145,23 @@
         <v>0</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C134" s="6">
         <v>16</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>375</v>
+        <v>450</v>
       </c>
       <c r="E134" s="6" t="s">
         <v>36</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G134" s="6"/>
       <c r="H134" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I134" s="6"/>
       <c r="J134" s="13">
@@ -8176,7 +8176,7 @@
         <v>0</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C135" s="6">
         <v>17</v>
@@ -8190,7 +8190,7 @@
       <c r="F135" s="6"/>
       <c r="G135" s="6"/>
       <c r="H135" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I135" s="6"/>
       <c r="J135" s="13">
@@ -8205,7 +8205,7 @@
         <v>0</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C136" s="6">
         <v>18</v>
@@ -8219,7 +8219,7 @@
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
       <c r="H136" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I136" s="6"/>
       <c r="J136" s="13">
@@ -8234,7 +8234,7 @@
         <v>0</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C137" s="6">
         <v>19</v>
@@ -8248,7 +8248,7 @@
       <c r="F137" s="6"/>
       <c r="G137" s="6"/>
       <c r="H137" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I137" s="6"/>
       <c r="J137" s="13">
@@ -8263,7 +8263,7 @@
         <v>0</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C138" s="6">
         <v>20</v>
@@ -8277,7 +8277,7 @@
       <c r="F138" s="6"/>
       <c r="G138" s="6"/>
       <c r="H138" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I138" s="6"/>
       <c r="J138" s="13">
@@ -8292,23 +8292,23 @@
         <v>0</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C139" s="6">
         <v>21</v>
       </c>
       <c r="D139" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E139" s="6" t="s">
         <v>46</v>
       </c>
       <c r="F139" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G139" s="6"/>
       <c r="H139" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I139" s="6"/>
       <c r="J139" s="13">
@@ -8323,7 +8323,7 @@
         <v>0</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C140" s="6">
         <v>22</v>
@@ -8337,7 +8337,7 @@
       <c r="F140" s="6"/>
       <c r="G140" s="6"/>
       <c r="H140" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I140" s="6"/>
       <c r="J140" s="13">
@@ -8352,7 +8352,7 @@
         <v>0</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C141" s="6">
         <v>23</v>
@@ -8366,7 +8366,7 @@
       <c r="F141" s="6"/>
       <c r="G141" s="6"/>
       <c r="H141" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I141" s="6"/>
       <c r="J141" s="13">
@@ -8381,23 +8381,23 @@
         <v>0</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C142" s="6">
         <v>24</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E142" s="6" t="s">
         <v>52</v>
       </c>
       <c r="F142" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G142" s="6"/>
       <c r="H142" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I142" s="6"/>
       <c r="J142" s="13">
@@ -8412,7 +8412,7 @@
         <v>0</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C143" s="6">
         <v>25</v>
@@ -8426,7 +8426,7 @@
       <c r="F143" s="6"/>
       <c r="G143" s="6"/>
       <c r="H143" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I143" s="6"/>
       <c r="J143" s="13">
@@ -8441,7 +8441,7 @@
         <v>0</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C144" s="6">
         <v>26</v>
@@ -8455,7 +8455,7 @@
       <c r="F144" s="6"/>
       <c r="G144" s="6"/>
       <c r="H144" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I144" s="6"/>
       <c r="J144" s="13">
@@ -8470,7 +8470,7 @@
         <v>0</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C145" s="6">
         <v>27</v>
@@ -8484,7 +8484,7 @@
       <c r="F145" s="6"/>
       <c r="G145" s="6"/>
       <c r="H145" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I145" s="6"/>
       <c r="J145" s="13">
@@ -8499,7 +8499,7 @@
         <v>0</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C146" s="6">
         <v>28</v>
@@ -8513,7 +8513,7 @@
       <c r="F146" s="6"/>
       <c r="G146" s="6"/>
       <c r="H146" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I146" s="6"/>
       <c r="J146" s="13">
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C147" s="6">
         <v>29</v>
@@ -8542,7 +8542,7 @@
       <c r="F147" s="6"/>
       <c r="G147" s="6"/>
       <c r="H147" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I147" s="6"/>
       <c r="J147" s="13">
@@ -8557,7 +8557,7 @@
         <v>0</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C148" s="6">
         <v>30</v>
@@ -8571,7 +8571,7 @@
       <c r="F148" s="6"/>
       <c r="G148" s="6"/>
       <c r="H148" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I148" s="6"/>
       <c r="J148" s="13">
@@ -8586,7 +8586,7 @@
         <v>0</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C149" s="6">
         <v>31</v>
@@ -8600,7 +8600,7 @@
       <c r="F149" s="6"/>
       <c r="G149" s="6"/>
       <c r="H149" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I149" s="6"/>
       <c r="J149" s="13">
@@ -8615,7 +8615,7 @@
         <v>0</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C150" s="6">
         <v>32</v>
@@ -8629,7 +8629,7 @@
       <c r="F150" s="6"/>
       <c r="G150" s="6"/>
       <c r="H150" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I150" s="6"/>
       <c r="J150" s="13">
@@ -8644,7 +8644,7 @@
         <v>0</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C151" s="6">
         <v>33</v>
@@ -8658,7 +8658,7 @@
       <c r="F151" s="6"/>
       <c r="G151" s="6"/>
       <c r="H151" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I151" s="6"/>
       <c r="J151" s="13">
@@ -8670,10 +8670,10 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C152" s="2">
         <v>1</v>
@@ -8685,10 +8685,10 @@
         <v>12</v>
       </c>
       <c r="F152" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H152" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J152" s="12">
         <v>1.3271999999999999</v>
@@ -8699,10 +8699,10 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C153" s="2">
         <v>2</v>
@@ -8714,7 +8714,7 @@
         <v>4</v>
       </c>
       <c r="H153" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J153" s="12">
         <v>1.3350250000275701</v>
@@ -8725,10 +8725,10 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C154" s="2">
         <v>3</v>
@@ -8740,7 +8740,7 @@
         <v>2</v>
       </c>
       <c r="H154" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J154" s="12">
         <v>1.3573</v>
@@ -8754,23 +8754,23 @@
         <v>124</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C155" s="6">
         <v>1</v>
       </c>
       <c r="D155" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E155" s="6" t="s">
         <v>126</v>
       </c>
       <c r="F155" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G155" s="6"/>
       <c r="H155" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I155" s="6"/>
       <c r="J155" s="13">
@@ -8785,19 +8785,19 @@
         <v>124</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C156" s="6">
         <v>2</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E156" s="6"/>
       <c r="F156" s="6"/>
       <c r="G156" s="6"/>
       <c r="H156" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I156" s="6"/>
       <c r="J156" s="13"/>
@@ -8808,23 +8808,23 @@
         <v>124</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C157" s="6">
         <v>3</v>
       </c>
       <c r="D157" s="6" t="s">
-        <v>375</v>
+        <v>450</v>
       </c>
       <c r="E157" s="6" t="s">
         <v>36</v>
       </c>
       <c r="F157" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G157" s="6"/>
       <c r="H157" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I157" s="6"/>
       <c r="J157" s="13">
@@ -8839,23 +8839,23 @@
         <v>124</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C158" s="6">
         <v>4</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E158" s="6" t="s">
         <v>129</v>
       </c>
       <c r="F158" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G158" s="6"/>
       <c r="H158" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I158" s="6"/>
       <c r="J158" s="13">
@@ -8870,7 +8870,7 @@
         <v>124</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C159" s="6">
         <v>5</v>
@@ -8884,7 +8884,7 @@
       <c r="F159" s="6"/>
       <c r="G159" s="6"/>
       <c r="H159" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I159" s="6"/>
       <c r="J159" s="13">
@@ -8899,23 +8899,23 @@
         <v>124</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C160" s="6">
         <v>6</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E160" s="6" t="s">
         <v>116</v>
       </c>
       <c r="F160" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G160" s="6"/>
       <c r="H160" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I160" s="6"/>
       <c r="J160" s="13">
@@ -8930,23 +8930,23 @@
         <v>124</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C161" s="6">
         <v>7</v>
       </c>
       <c r="D161" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E161" s="6" t="s">
         <v>134</v>
       </c>
       <c r="F161" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G161" s="6"/>
       <c r="H161" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I161" s="6"/>
       <c r="J161" s="13">
@@ -8961,7 +8961,7 @@
         <v>124</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C162" s="6">
         <v>8</v>
@@ -8975,7 +8975,7 @@
       <c r="F162" s="6"/>
       <c r="G162" s="6"/>
       <c r="H162" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I162" s="6"/>
       <c r="J162" s="13">
@@ -8990,7 +8990,7 @@
         <v>124</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C163" s="6">
         <v>9</v>
@@ -9004,7 +9004,7 @@
       <c r="F163" s="6"/>
       <c r="G163" s="6"/>
       <c r="H163" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I163" s="6"/>
       <c r="J163" s="13">
@@ -9019,7 +9019,7 @@
         <v>124</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C164" s="6">
         <v>10</v>
@@ -9033,7 +9033,7 @@
       <c r="F164" s="6"/>
       <c r="G164" s="6"/>
       <c r="H164" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I164" s="6"/>
       <c r="J164" s="13">
@@ -9048,7 +9048,7 @@
         <v>124</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C165" s="6">
         <v>11</v>
@@ -9062,7 +9062,7 @@
       <c r="F165" s="6"/>
       <c r="G165" s="6"/>
       <c r="H165" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I165" s="6"/>
       <c r="J165" s="13">
@@ -9077,23 +9077,23 @@
         <v>124</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C166" s="6">
         <v>12</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E166" s="6" t="s">
         <v>144</v>
       </c>
       <c r="F166" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G166" s="6"/>
       <c r="H166" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I166" s="6"/>
       <c r="J166" s="13">
@@ -9108,7 +9108,7 @@
         <v>124</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C167" s="6">
         <v>13</v>
@@ -9122,7 +9122,7 @@
       <c r="F167" s="6"/>
       <c r="G167" s="6"/>
       <c r="H167" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I167" s="6"/>
       <c r="J167" s="13">
@@ -9137,7 +9137,7 @@
         <v>124</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C168" s="6">
         <v>14</v>
@@ -9151,7 +9151,7 @@
       <c r="F168" s="6"/>
       <c r="G168" s="6"/>
       <c r="H168" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I168" s="6"/>
       <c r="J168" s="13">
@@ -9166,7 +9166,7 @@
         <v>124</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C169" s="6">
         <v>15</v>
@@ -9180,7 +9180,7 @@
       <c r="F169" s="6"/>
       <c r="G169" s="6"/>
       <c r="H169" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I169" s="6"/>
       <c r="J169" s="13">
@@ -9195,23 +9195,23 @@
         <v>124</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C170" s="6">
         <v>16</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E170" s="6" t="s">
         <v>152</v>
       </c>
       <c r="F170" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G170" s="6"/>
       <c r="H170" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I170" s="6"/>
       <c r="J170" s="13">
@@ -9226,23 +9226,23 @@
         <v>124</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C171" s="6">
         <v>17</v>
       </c>
       <c r="D171" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E171" s="6" t="s">
         <v>154</v>
       </c>
       <c r="F171" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G171" s="6"/>
       <c r="H171" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I171" s="6"/>
       <c r="J171" s="13">
@@ -9257,22 +9257,22 @@
         <v>71</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C172" s="2">
         <v>1</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>52</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H172" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J172" s="12">
         <v>1.3331233333363299</v>
@@ -9286,7 +9286,7 @@
         <v>71</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C173" s="2">
         <v>2</v>
@@ -9298,7 +9298,7 @@
         <v>74</v>
       </c>
       <c r="H173" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J173" s="12">
         <v>1.3489900000005499</v>
@@ -9312,7 +9312,7 @@
         <v>71</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C174" s="2">
         <v>3</v>
@@ -9324,7 +9324,7 @@
         <v>76</v>
       </c>
       <c r="H174" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J174" s="12">
         <v>1.3589150000003301</v>
@@ -9338,22 +9338,22 @@
         <v>71</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C175" s="2">
         <v>4</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>78</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H175" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J175" s="12">
         <v>1.3852033333371101</v>
@@ -9367,7 +9367,7 @@
         <v>71</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C176" s="2">
         <v>5</v>
@@ -9379,7 +9379,7 @@
         <v>80</v>
       </c>
       <c r="H176" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J176" s="12">
         <v>1.3975500000000001</v>
@@ -9393,19 +9393,19 @@
         <v>71</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C177" s="2">
         <v>6</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H177" s="9" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
@@ -9413,7 +9413,7 @@
         <v>71</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C178" s="2">
         <v>7</v>
@@ -9425,7 +9425,7 @@
         <v>82</v>
       </c>
       <c r="H178" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J178" s="12">
         <v>1.4252099999999901</v>
@@ -9439,7 +9439,7 @@
         <v>71</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C179" s="2">
         <v>8</v>
@@ -9451,7 +9451,7 @@
         <v>84</v>
       </c>
       <c r="H179" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J179" s="12">
         <v>1.43255</v>
@@ -9465,22 +9465,22 @@
         <v>71</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C180" s="2">
         <v>9</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>86</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H180" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J180" s="12">
         <v>1.4368639999999999</v>
@@ -9494,7 +9494,7 @@
         <v>71</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C181" s="2">
         <v>10</v>
@@ -9506,7 +9506,7 @@
         <v>88</v>
       </c>
       <c r="H181" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J181" s="12">
         <v>1.4406300000000001</v>
@@ -9520,7 +9520,7 @@
         <v>71</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C182" s="2">
         <v>11</v>
@@ -9532,7 +9532,7 @@
         <v>90</v>
       </c>
       <c r="H182" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J182" s="12">
         <v>1.44906</v>
@@ -9546,7 +9546,7 @@
         <v>71</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C183" s="2">
         <v>12</v>
@@ -9558,7 +9558,7 @@
         <v>92</v>
       </c>
       <c r="H183" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J183" s="12">
         <v>1.4432499999999999</v>
@@ -9572,7 +9572,7 @@
         <v>71</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C184" s="2">
         <v>13</v>
@@ -9584,7 +9584,7 @@
         <v>94</v>
       </c>
       <c r="H184" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J184" s="12">
         <v>1.4293800000000001</v>
@@ -9598,7 +9598,7 @@
         <v>71</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C185" s="2">
         <v>14</v>
@@ -9610,7 +9610,7 @@
         <v>96</v>
       </c>
       <c r="H185" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J185" s="12">
         <v>1.4173199999999999</v>
@@ -9624,7 +9624,7 @@
         <v>71</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C186" s="2">
         <v>15</v>
@@ -9636,7 +9636,7 @@
         <v>98</v>
       </c>
       <c r="H186" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J186" s="12">
         <v>1.38177999999999</v>
@@ -9650,7 +9650,7 @@
         <v>71</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C187" s="2">
         <v>16</v>
@@ -9662,7 +9662,7 @@
         <v>100</v>
       </c>
       <c r="H187" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J187" s="12">
         <v>1.3700699999999999</v>
@@ -9676,22 +9676,22 @@
         <v>71</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C188" s="2">
         <v>17</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E188" s="2" t="s">
         <v>102</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H188" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J188" s="12">
         <v>1.3513600000044199</v>
@@ -9705,7 +9705,7 @@
         <v>71</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C189" s="2">
         <v>18</v>
@@ -9717,7 +9717,7 @@
         <v>104</v>
       </c>
       <c r="H189" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J189" s="12">
         <v>1.3406</v>
@@ -9731,7 +9731,7 @@
         <v>71</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C190" s="2">
         <v>19</v>
@@ -9743,7 +9743,7 @@
         <v>106</v>
       </c>
       <c r="H190" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J190" s="12">
         <v>1.3323699999999901</v>
@@ -9757,7 +9757,7 @@
         <v>71</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C191" s="2">
         <v>20</v>
@@ -9769,7 +9769,7 @@
         <v>108</v>
       </c>
       <c r="H191" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J191" s="12">
         <v>1.3200700000000001</v>
@@ -9783,22 +9783,22 @@
         <v>71</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C192" s="2">
         <v>21</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>110</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H192" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J192" s="12">
         <v>1.3131700000033899</v>
@@ -9812,22 +9812,22 @@
         <v>71</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C193" s="2">
         <v>22</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>112</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H193" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J193" s="12">
         <v>1.3030650000266599</v>
@@ -9841,7 +9841,7 @@
         <v>71</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C194" s="2">
         <v>23</v>
@@ -9853,7 +9853,7 @@
         <v>114</v>
       </c>
       <c r="H194" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J194" s="12">
         <v>1.3002800000000001</v>
@@ -9867,22 +9867,22 @@
         <v>71</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C195" s="2">
         <v>24</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>116</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H195" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J195" s="12">
         <v>1.29922666669347</v>
@@ -9896,22 +9896,22 @@
         <v>71</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C196" s="2">
         <v>25</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H196" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J196" s="12">
         <v>1.29308000000032</v>
@@ -9925,7 +9925,7 @@
         <v>71</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C197" s="2">
         <v>26</v>
@@ -9937,10 +9937,10 @@
         <v>119</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H197" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J197" s="12">
         <v>1.28437000000024</v>
@@ -9954,22 +9954,22 @@
         <v>71</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C198" s="2">
         <v>27</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>121</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H198" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J198" s="12">
         <v>1.2752500000492499</v>
@@ -9983,7 +9983,7 @@
         <v>71</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C199" s="2">
         <v>28</v>
@@ -9995,7 +9995,7 @@
         <v>123</v>
       </c>
       <c r="H199" s="9" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J199" s="12">
         <v>1.2717099999999999</v>
@@ -10009,7 +10009,7 @@
         <v>268</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C200" s="6">
         <v>1</v>
@@ -10038,19 +10038,19 @@
         <v>268</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C201" s="6">
         <v>2</v>
       </c>
       <c r="D201" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E201" s="6" t="s">
         <v>86</v>
       </c>
       <c r="F201" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G201" s="6"/>
       <c r="H201" s="10">
@@ -10069,7 +10069,7 @@
         <v>268</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C202" s="6">
         <v>3</v>
@@ -10098,7 +10098,7 @@
         <v>268</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C203" s="6">
         <v>4</v>
@@ -10127,7 +10127,7 @@
         <v>268</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C204" s="6">
         <v>5</v>
@@ -10156,7 +10156,7 @@
         <v>268</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C205" s="6">
         <v>6</v>
@@ -10185,7 +10185,7 @@
         <v>268</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C206" s="6">
         <v>7</v>
@@ -10214,7 +10214,7 @@
         <v>268</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C207" s="6">
         <v>8</v>
@@ -10243,19 +10243,19 @@
         <v>268</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C208" s="6">
         <v>9</v>
       </c>
       <c r="D208" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E208" s="6" t="s">
         <v>188</v>
       </c>
       <c r="F208" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G208" s="6"/>
       <c r="H208" s="10">
@@ -10274,21 +10274,21 @@
         <v>268</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C209" s="6">
         <v>10</v>
       </c>
       <c r="D209" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E209" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F209" s="6"/>
       <c r="G209" s="6"/>
       <c r="H209" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I209" s="6"/>
       <c r="J209" s="13"/>
@@ -10299,19 +10299,19 @@
         <v>268</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C210" s="6">
         <v>11</v>
       </c>
       <c r="D210" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E210" s="6" t="s">
         <v>226</v>
       </c>
       <c r="F210" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G210" s="6"/>
       <c r="H210" s="10">
@@ -10330,16 +10330,16 @@
         <v>268</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C211" s="6">
         <v>12</v>
       </c>
       <c r="D211" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E211" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F211" s="6"/>
       <c r="G211" s="6"/>
@@ -10359,16 +10359,16 @@
         <v>268</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C212" s="6">
         <v>13</v>
       </c>
       <c r="D212" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E212" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F212" s="6"/>
       <c r="G212" s="6"/>
@@ -10388,19 +10388,19 @@
         <v>268</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C213" s="6">
         <v>14</v>
       </c>
       <c r="D213" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E213" s="6" t="s">
         <v>112</v>
       </c>
       <c r="F213" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G213" s="6"/>
       <c r="H213" s="10">
@@ -10419,16 +10419,16 @@
         <v>268</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C214" s="6">
         <v>15</v>
       </c>
       <c r="D214" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E214" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F214" s="6"/>
       <c r="G214" s="6"/>
@@ -10448,16 +10448,16 @@
         <v>268</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C215" s="6">
         <v>16</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E215" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F215" s="6"/>
       <c r="G215" s="6"/>
@@ -10477,19 +10477,19 @@
         <v>268</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C216" s="6">
         <v>17</v>
       </c>
       <c r="D216" s="6" t="s">
-        <v>375</v>
+        <v>450</v>
       </c>
       <c r="E216" s="6" t="s">
         <v>36</v>
       </c>
       <c r="F216" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G216" s="6"/>
       <c r="H216" s="10">
@@ -10508,16 +10508,16 @@
         <v>268</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C217" s="6">
         <v>18</v>
       </c>
       <c r="D217" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E217" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F217" s="6"/>
       <c r="G217" s="6"/>
@@ -10537,16 +10537,16 @@
         <v>268</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C218" s="6">
         <v>19</v>
       </c>
       <c r="D218" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E218" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F218" s="6"/>
       <c r="G218" s="6"/>
@@ -10566,19 +10566,19 @@
         <v>268</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C219" s="6">
         <v>20</v>
       </c>
       <c r="D219" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E219" s="6" t="s">
         <v>121</v>
       </c>
       <c r="F219" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G219" s="6"/>
       <c r="H219" s="10">
@@ -10597,21 +10597,21 @@
         <v>268</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C220" s="6">
         <v>21</v>
       </c>
       <c r="D220" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E220" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F220" s="6"/>
       <c r="G220" s="6"/>
       <c r="H220" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I220" s="6"/>
       <c r="J220" s="13"/>
@@ -10622,16 +10622,16 @@
         <v>268</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C221" s="6">
         <v>22</v>
       </c>
       <c r="D221" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="E221" s="6" t="s">
         <v>416</v>
-      </c>
-      <c r="E221" s="6" t="s">
-        <v>417</v>
       </c>
       <c r="F221" s="6"/>
       <c r="G221" s="6"/>
@@ -10648,13 +10648,13 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:L221" xr:uid="{00000000-0009-0000-0000-000001000000}">
-    <sortState ref="A2:L221">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L221">
       <sortCondition ref="B2:B221"/>
       <sortCondition ref="A2:A221"/>
       <sortCondition ref="C2:C221"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A2:L222">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L222">
     <sortCondition ref="F2:F222"/>
     <sortCondition ref="E2:E222"/>
   </sortState>
